--- a/storage/templates/Warga.xlsx
+++ b/storage/templates/Warga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rwdigital\rw-digital\storage\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProject\rw-digital\rw-digital-backend\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF1E64-4111-448F-8195-E691BBD8830B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D6BBB7-1BCF-4F9A-AC62-326FF429EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F3285E12-553C-4611-9295-CFD3422EDC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3285E12-553C-4611-9295-CFD3422EDC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>NO</t>
   </si>
@@ -360,6 +360,25 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>TEMPAT LAHIR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>KONGHUCU</t>
   </si>
 </sst>
 </file>
@@ -460,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -479,19 +498,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AF838F-0C83-4DF9-A27C-E10FDA777E3B}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,24 +845,25 @@
     <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17" style="12" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="5" customWidth="1"/>
     <col min="14" max="14" width="22.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="2" customWidth="1"/>
     <col min="16" max="17" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="19" width="26.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -850,116 +876,110 @@
       <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{ABC11465-9C7E-445B-A7EF-DCB626544F8D}">
-      <formula1>10</formula1>
-      <formula2>15</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{148C3891-132C-4D07-8E47-52C29D58436D}">
-      <formula1>16</formula1>
-      <formula2>16</formula2>
-    </dataValidation>
-  </dataValidations>
+  <sheetProtection algorithmName="SHA-512" hashValue="8yqrmoEhDoSJgCwfhPagZaIV8jyzK9FPdwY0aPCsqfZip6pTygz2wtQhNjSC64ZBEL3s5vbOaoSL1TxBlqIABw==" saltValue="lzBOAwWYUr9qK+nZquta9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ECEF610-8CC8-4B46-AC6E-325EBE91106E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13E3DA45-EC61-4032-A1EB-741E40D2FE10}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C63FACA-158C-439A-B35E-E047474EAAD0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35A32189-7432-4F23-93A7-BC1EDFBF3D93}">
           <x14:formula1>
-            <xm:f>Sheet2!$E$2:$E$6</xm:f>
+            <xm:f>Sheet2!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EDF6491-B28D-4565-A330-E50B9A46363F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{660ADEF6-63C0-4395-8613-320EAD3CFC23}">
           <x14:formula1>
             <xm:f>Sheet2!$T$2:$T$9</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{83B6EEB5-69C8-4422-BB3C-C2BFA6D8F89D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47211B04-A475-422A-B822-B3F4C7F9C903}">
           <x14:formula1>
             <xm:f>Sheet2!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1048576</xm:sqref>
+          <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69927B36-B80F-4DC0-87B8-94FD26302C2D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30D4EACF-4B72-4BCB-B7C9-F8DA1870F69B}">
           <x14:formula1>
             <xm:f>Sheet2!$H$2:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P1048576</xm:sqref>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5CB04E61-E401-4AD3-A61F-D57D39792657}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFD6DA46-7968-4D34-91CB-86EC2D757022}">
           <x14:formula1>
             <xm:f>Sheet2!$N$2:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{758C0C3D-040E-43AF-B4E5-52F0334D8B60}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B720DE1-4CB3-4C76-BA19-25FBBB29F456}">
           <x14:formula1>
             <xm:f>Sheet2!$Q$2:$Q$4</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -971,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109269A9-1D9A-4E58-BCDF-58F01AF66533}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1211,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
       <c r="S7">
         <v>5</v>
       </c>
@@ -1215,7 +1241,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KYGSkU+G9wWjsSb/8YE4QpWqfoRs5//bdjE2SRGYw86tclfFAERzQeZKRrT4zB4cvEinkeJhVMXRtzmTErwS6Q==" saltValue="0vj0+JBwaZJnYSGGwqAJtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I6PCDtpqlCW3SVI9d4tc/nEssGWZcq9hRYvi01/NQggSRxSSF2QmrRBQG1Yp0AJrSaoNCcW9pxM3Dg7Spv8T5w==" saltValue="xEFd70HUgEBKdhNqZchdLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>